--- a/files/stat.xlsx
+++ b/files/stat.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId3"/>
+    <sheet name="a" sheetId="2" r:id="rId4"/>
+    <sheet name="b" sheetId="3" r:id="rId5"/>
+    <sheet name="admin" sheetId="4" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -19,22 +22,94 @@
     <t>Percent</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Translate</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si/>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>testt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF0563C1"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -42,8 +117,43 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill>
-        <bgColor rgb="BLACK"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACE466"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +165,11 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="true" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="true" xfId="0"/>
@@ -67,29 +178,715 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="true" xfId="0"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" applyNumberFormat="true" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyFill="true" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyFill="true" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyFill="true" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyFill="true" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyFill="true" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyFill="true" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyFill="true" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyFill="true" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C10"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="a!A1"/>
+    <hyperlink ref="B3" location="b!A1"/>
+    <hyperlink ref="B4" location="a!A1"/>
+    <hyperlink ref="B5" location="a!A1"/>
+    <hyperlink ref="B6" location="a!A1"/>
+    <hyperlink ref="B7" location="a!A1"/>
+    <hyperlink ref="B8" location="a!A1"/>
+    <hyperlink ref="B9" location="a!A1"/>
+    <hyperlink ref="B10" location="admin!A1"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D29"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
